--- a/reports/aws_products/template.xlsx
+++ b/reports/aws_products/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11020"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc1/Documents/Connect/IM_Reports/reports/aws_products/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DA7BE9-F8E4-5D4B-A8B6-54C4148A6770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30995C9F-C0AB-624B-855C-033F2DED7829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20000" xr2:uid="{DCD29C91-A619-4D2B-BF97-7BACE115DDF0}"/>
   </bookViews>
@@ -137,7 +137,7 @@
     <t>Email (Reseller)</t>
   </si>
   <si>
-    <t>Country  (Reseller)</t>
+    <t>AWS APN</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC6B2A4-FA15-431F-B0C7-1DEC5571AEE5}">
   <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/reports/aws_products/template.xlsx
+++ b/reports/aws_products/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11020"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc1/Documents/Connect/IM_Reports/reports/aws_products/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmartin00\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30995C9F-C0AB-624B-855C-033F2DED7829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41125CDC-C23B-407E-B87E-BF4069756924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20000" xr2:uid="{DCD29C91-A619-4D2B-BF97-7BACE115DDF0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DCD29C91-A619-4D2B-BF97-7BACE115DDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Customer name (Tier 0)</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>AWS APN</t>
+  </si>
+  <si>
+    <t>Account type</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -504,36 +507,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC6B2A4-FA15-431F-B0C7-1DEC5571AEE5}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.33203125" customWidth="1"/>
-    <col min="21" max="21" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.1640625" customWidth="1"/>
-    <col min="23" max="23" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="15.33203125" customWidth="1"/>
-    <col min="28" max="28" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="18.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.36328125" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1796875" customWidth="1"/>
+    <col min="11" max="11" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.36328125" customWidth="1"/>
+    <col min="16" max="16" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1796875" customWidth="1"/>
+    <col min="20" max="20" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.36328125" customWidth="1"/>
+    <col min="22" max="22" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.1796875" customWidth="1"/>
+    <col min="24" max="24" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="15.36328125" customWidth="1"/>
+    <col min="29" max="29" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -589,33 +593,36 @@
         <v>3</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
